--- a/T1DM_HbA1c.xlsx
+++ b/T1DM_HbA1c.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A08E5D-9F11-8741-A4E6-2C4308DFC96E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D207C1-11AF-F646-B98E-1D269968D28B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{A947EAB9-0D52-0D48-A577-09A064275AFA}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>7.41</t>
   </si>
   <si>
-    <t>Sujeto</t>
-  </si>
-  <si>
     <t>HbA1c</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -415,17 +415,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
